--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.194648666666667</v>
+        <v>2.205287</v>
       </c>
       <c r="H2">
-        <v>9.583946000000001</v>
+        <v>6.615861000000001</v>
       </c>
       <c r="I2">
-        <v>0.1104372036365826</v>
+        <v>0.08934890526417845</v>
       </c>
       <c r="J2">
-        <v>0.122064847035162</v>
+        <v>0.0954811485786439</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.002858666666666667</v>
+        <v>0.03298066666666667</v>
       </c>
       <c r="N2">
-        <v>0.008576</v>
+        <v>0.098942</v>
       </c>
       <c r="O2">
-        <v>0.002734612344944435</v>
+        <v>0.680931013599075</v>
       </c>
       <c r="P2">
-        <v>0.004026383705540645</v>
+        <v>0.7619715055833655</v>
       </c>
       <c r="Q2">
-        <v>0.009132435655111112</v>
+        <v>0.07273183545133334</v>
       </c>
       <c r="R2">
-        <v>0.08219192089600001</v>
+        <v>0.654586519062</v>
       </c>
       <c r="S2">
-        <v>0.0003020029404057412</v>
+        <v>0.06084044062550476</v>
       </c>
       <c r="T2">
-        <v>0.0004914799111216877</v>
+        <v>0.07275391453729831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.194648666666667</v>
+        <v>2.205287</v>
       </c>
       <c r="H3">
-        <v>9.583946000000001</v>
+        <v>6.615861000000001</v>
       </c>
       <c r="I3">
-        <v>0.1104372036365826</v>
+        <v>0.08934890526417845</v>
       </c>
       <c r="J3">
-        <v>0.122064847035162</v>
+        <v>0.0954811485786439</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.03298066666666667</v>
+        <v>0.015454</v>
       </c>
       <c r="N3">
-        <v>0.098942</v>
+        <v>0.030908</v>
       </c>
       <c r="O3">
-        <v>0.03154944200483818</v>
+        <v>0.319068986400925</v>
       </c>
       <c r="P3">
-        <v>0.04645271182294804</v>
+        <v>0.2380284944166346</v>
       </c>
       <c r="Q3">
-        <v>0.1053616427924444</v>
+        <v>0.034080505298</v>
       </c>
       <c r="R3">
-        <v>0.9482547851320001</v>
+        <v>0.204483031788</v>
       </c>
       <c r="S3">
-        <v>0.003484232151308866</v>
+        <v>0.02850846463867369</v>
       </c>
       <c r="T3">
-        <v>0.005670243163036616</v>
+        <v>0.0227272340413456</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.194648666666667</v>
+        <v>16.97794966666667</v>
       </c>
       <c r="H4">
-        <v>9.583946000000001</v>
+        <v>50.93384900000001</v>
       </c>
       <c r="I4">
-        <v>0.1104372036365826</v>
+        <v>0.687874737549802</v>
       </c>
       <c r="J4">
-        <v>0.122064847035162</v>
+        <v>0.7350853356881611</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.003382666666666667</v>
+        <v>0.03298066666666667</v>
       </c>
       <c r="N4">
-        <v>0.010148</v>
+        <v>0.098942</v>
       </c>
       <c r="O4">
-        <v>0.003235872910039194</v>
+        <v>0.680931013599075</v>
       </c>
       <c r="P4">
-        <v>0.004764428853058123</v>
+        <v>0.7619715055833655</v>
       </c>
       <c r="Q4">
-        <v>0.01080643155644445</v>
+        <v>0.5599440986397779</v>
       </c>
       <c r="R4">
-        <v>0.09725788400800002</v>
+        <v>5.039496887758001</v>
       </c>
       <c r="S4">
-        <v>0.0003573607555080995</v>
+        <v>0.4683952422689844</v>
       </c>
       <c r="T4">
-        <v>0.0005815692791584522</v>
+        <v>0.5601140799665617</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.194648666666667</v>
+        <v>16.97794966666667</v>
       </c>
       <c r="H5">
-        <v>9.583946000000001</v>
+        <v>50.93384900000001</v>
       </c>
       <c r="I5">
-        <v>0.1104372036365826</v>
+        <v>0.687874737549802</v>
       </c>
       <c r="J5">
-        <v>0.122064847035162</v>
+        <v>0.7350853356881611</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.0061425</v>
+        <v>0.015454</v>
       </c>
       <c r="N5">
-        <v>2.012285</v>
+        <v>0.030908</v>
       </c>
       <c r="O5">
-        <v>0.9624800727401781</v>
+        <v>0.319068986400925</v>
       </c>
       <c r="P5">
-        <v>0.9447564756184532</v>
+        <v>0.2380284944166346</v>
       </c>
       <c r="Q5">
-        <v>3.214271796101667</v>
+        <v>0.2623772341486668</v>
       </c>
       <c r="R5">
-        <v>19.28563077661</v>
+        <v>1.574263404892</v>
       </c>
       <c r="S5">
-        <v>0.1062936077893599</v>
+        <v>0.2194794952808176</v>
       </c>
       <c r="T5">
-        <v>0.1153215546818453</v>
+        <v>0.1749712557215994</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.97794966666667</v>
+        <v>0.32709</v>
       </c>
       <c r="H6">
-        <v>50.933849</v>
+        <v>0.9812700000000001</v>
       </c>
       <c r="I6">
-        <v>0.5869181497900705</v>
+        <v>0.01325230386015976</v>
       </c>
       <c r="J6">
-        <v>0.6487132217874599</v>
+        <v>0.01416184328325004</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.002858666666666667</v>
+        <v>0.03298066666666667</v>
       </c>
       <c r="N6">
-        <v>0.008576</v>
+        <v>0.098942</v>
       </c>
       <c r="O6">
-        <v>0.002734612344944435</v>
+        <v>0.680931013599075</v>
       </c>
       <c r="P6">
-        <v>0.004026383705540645</v>
+        <v>0.7619715055833655</v>
       </c>
       <c r="Q6">
-        <v>0.04853429878044445</v>
+        <v>0.01078764626</v>
       </c>
       <c r="R6">
-        <v>0.4368086890240001</v>
+        <v>0.09708881634000001</v>
       </c>
       <c r="S6">
-        <v>0.001604993617887874</v>
+        <v>0.009023904700021519</v>
       </c>
       <c r="T6">
-        <v>0.002611968345773803</v>
+        <v>0.0107909210483737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.97794966666667</v>
+        <v>0.32709</v>
       </c>
       <c r="H7">
-        <v>50.933849</v>
+        <v>0.9812700000000001</v>
       </c>
       <c r="I7">
-        <v>0.5869181497900705</v>
+        <v>0.01325230386015976</v>
       </c>
       <c r="J7">
-        <v>0.6487132217874599</v>
+        <v>0.01416184328325004</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.03298066666666667</v>
+        <v>0.015454</v>
       </c>
       <c r="N7">
-        <v>0.098942</v>
+        <v>0.030908</v>
       </c>
       <c r="O7">
-        <v>0.03154944200483818</v>
+        <v>0.319068986400925</v>
       </c>
       <c r="P7">
-        <v>0.04645271182294804</v>
+        <v>0.2380284944166346</v>
       </c>
       <c r="Q7">
-        <v>0.5599440986397778</v>
+        <v>0.005054848860000001</v>
       </c>
       <c r="R7">
-        <v>5.039496887758</v>
+        <v>0.03032909316</v>
       </c>
       <c r="S7">
-        <v>0.01851694012838876</v>
+        <v>0.004228399160138239</v>
       </c>
       <c r="T7">
-        <v>0.03013448834742906</v>
+        <v>0.003370922234876336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.97794966666667</v>
+        <v>4.7555295</v>
       </c>
       <c r="H8">
-        <v>50.933849</v>
+        <v>9.511058999999999</v>
       </c>
       <c r="I8">
-        <v>0.5869181497900705</v>
+        <v>0.1926739489130013</v>
       </c>
       <c r="J8">
-        <v>0.6487132217874599</v>
+        <v>0.1372651023833856</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.003382666666666667</v>
+        <v>0.03298066666666667</v>
       </c>
       <c r="N8">
-        <v>0.010148</v>
+        <v>0.098942</v>
       </c>
       <c r="O8">
-        <v>0.003235872910039194</v>
+        <v>0.680931013599075</v>
       </c>
       <c r="P8">
-        <v>0.004764428853058123</v>
+        <v>0.7619715055833655</v>
       </c>
       <c r="Q8">
-        <v>0.05743074440577779</v>
+        <v>0.156840533263</v>
       </c>
       <c r="R8">
-        <v>0.5168766996520001</v>
+        <v>0.941043199578</v>
       </c>
       <c r="S8">
-        <v>0.001899192541316015</v>
+        <v>0.1311976673274663</v>
       </c>
       <c r="T8">
-        <v>0.003090747991244467</v>
+        <v>0.1045920967271231</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.97794966666667</v>
+        <v>4.7555295</v>
       </c>
       <c r="H9">
-        <v>50.933849</v>
+        <v>9.511058999999999</v>
       </c>
       <c r="I9">
-        <v>0.5869181497900705</v>
+        <v>0.1926739489130013</v>
       </c>
       <c r="J9">
-        <v>0.6487132217874599</v>
+        <v>0.1372651023833856</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>1.0061425</v>
+        <v>0.015454</v>
       </c>
       <c r="N9">
-        <v>2.012285</v>
+        <v>0.030908</v>
       </c>
       <c r="O9">
-        <v>0.9624800727401781</v>
+        <v>0.319068986400925</v>
       </c>
       <c r="P9">
-        <v>0.9447564756184532</v>
+        <v>0.2380284944166346</v>
       </c>
       <c r="Q9">
-        <v>17.08223672249417</v>
+        <v>0.07349195289299999</v>
       </c>
       <c r="R9">
-        <v>102.493420334965</v>
+        <v>0.293967811572</v>
       </c>
       <c r="S9">
-        <v>0.5648970235024778</v>
+        <v>0.06147628158553491</v>
       </c>
       <c r="T9">
-        <v>0.6128760171030126</v>
+        <v>0.03267300565626248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1410116666666667</v>
+        <v>0.4158899999999999</v>
       </c>
       <c r="H10">
-        <v>0.423035</v>
+        <v>1.24767</v>
       </c>
       <c r="I10">
-        <v>0.004874693830745886</v>
+        <v>0.01685010441285836</v>
       </c>
       <c r="J10">
-        <v>0.005387937553646458</v>
+        <v>0.01800657006655923</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.002858666666666667</v>
+        <v>0.03298066666666667</v>
       </c>
       <c r="N10">
-        <v>0.008576</v>
+        <v>0.098942</v>
       </c>
       <c r="O10">
-        <v>0.002734612344944435</v>
+        <v>0.680931013599075</v>
       </c>
       <c r="P10">
-        <v>0.004026383705540645</v>
+        <v>0.7619715055833655</v>
       </c>
       <c r="Q10">
-        <v>0.0004031053511111112</v>
+        <v>0.01371632946</v>
       </c>
       <c r="R10">
-        <v>0.00362794816</v>
+        <v>0.12344696514</v>
       </c>
       <c r="S10">
-        <v>1.333039792738218E-05</v>
+        <v>0.01147375867709789</v>
       </c>
       <c r="T10">
-        <v>2.169390397247262E-05</v>
+        <v>0.0137204933040085</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,666 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1410116666666667</v>
+        <v>0.4158899999999999</v>
       </c>
       <c r="H11">
-        <v>0.423035</v>
+        <v>1.24767</v>
       </c>
       <c r="I11">
-        <v>0.004874693830745886</v>
+        <v>0.01685010441285836</v>
       </c>
       <c r="J11">
-        <v>0.005387937553646458</v>
+        <v>0.01800657006655923</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.03298066666666667</v>
+        <v>0.015454</v>
       </c>
       <c r="N11">
-        <v>0.098942</v>
+        <v>0.030908</v>
       </c>
       <c r="O11">
-        <v>0.03154944200483818</v>
+        <v>0.319068986400925</v>
       </c>
       <c r="P11">
-        <v>0.04645271182294804</v>
+        <v>0.2380284944166346</v>
       </c>
       <c r="Q11">
-        <v>0.004650658774444445</v>
+        <v>0.006427164059999999</v>
       </c>
       <c r="R11">
-        <v>0.04185592897</v>
+        <v>0.03856298436</v>
       </c>
       <c r="S11">
-        <v>0.0001537938703044598</v>
+        <v>0.005376345735760468</v>
       </c>
       <c r="T11">
-        <v>0.0002502843104995786</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.1410116666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.423035</v>
-      </c>
-      <c r="I12">
-        <v>0.004874693830745886</v>
-      </c>
-      <c r="J12">
-        <v>0.005387937553646458</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.003382666666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.010148</v>
-      </c>
-      <c r="O12">
-        <v>0.003235872910039194</v>
-      </c>
-      <c r="P12">
-        <v>0.004764428853058123</v>
-      </c>
-      <c r="Q12">
-        <v>0.0004769954644444445</v>
-      </c>
-      <c r="R12">
-        <v>0.00429295918</v>
-      </c>
-      <c r="S12">
-        <v>1.577388971164579E-05</v>
-      </c>
-      <c r="T12">
-        <v>2.567044513906858E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.1410116666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.423035</v>
-      </c>
-      <c r="I13">
-        <v>0.004874693830745886</v>
-      </c>
-      <c r="J13">
-        <v>0.005387937553646458</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.0061425</v>
-      </c>
-      <c r="N13">
-        <v>2.012285</v>
-      </c>
-      <c r="O13">
-        <v>0.9624800727401781</v>
-      </c>
-      <c r="P13">
-        <v>0.9447564756184532</v>
-      </c>
-      <c r="Q13">
-        <v>0.1418778308291667</v>
-      </c>
-      <c r="R13">
-        <v>0.851266984975</v>
-      </c>
-      <c r="S13">
-        <v>0.004691795672802397</v>
-      </c>
-      <c r="T13">
-        <v>0.005090288894035339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>8.266659499999999</v>
-      </c>
-      <c r="H14">
-        <v>16.533319</v>
-      </c>
-      <c r="I14">
-        <v>0.2857737591371413</v>
-      </c>
-      <c r="J14">
-        <v>0.2105747522699458</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.002858666666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.008576</v>
-      </c>
-      <c r="O14">
-        <v>0.002734612344944435</v>
-      </c>
-      <c r="P14">
-        <v>0.004026383705540645</v>
-      </c>
-      <c r="Q14">
-        <v>0.02363162395733334</v>
-      </c>
-      <c r="R14">
-        <v>0.141789743744</v>
-      </c>
-      <c r="S14">
-        <v>0.0007814804495976041</v>
-      </c>
-      <c r="T14">
-        <v>0.0008478547513379675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>8.266659499999999</v>
-      </c>
-      <c r="H15">
-        <v>16.533319</v>
-      </c>
-      <c r="I15">
-        <v>0.2857737591371413</v>
-      </c>
-      <c r="J15">
-        <v>0.2105747522699458</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.03298066666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.098942</v>
-      </c>
-      <c r="O15">
-        <v>0.03154944200483818</v>
-      </c>
-      <c r="P15">
-        <v>0.04645271182294804</v>
-      </c>
-      <c r="Q15">
-        <v>0.2726399414163333</v>
-      </c>
-      <c r="R15">
-        <v>1.635839648498</v>
-      </c>
-      <c r="S15">
-        <v>0.009016002640401836</v>
-      </c>
-      <c r="T15">
-        <v>0.009781768284384465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>8.266659499999999</v>
-      </c>
-      <c r="H16">
-        <v>16.533319</v>
-      </c>
-      <c r="I16">
-        <v>0.2857737591371413</v>
-      </c>
-      <c r="J16">
-        <v>0.2105747522699458</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.003382666666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.010148</v>
-      </c>
-      <c r="O16">
-        <v>0.003235872910039194</v>
-      </c>
-      <c r="P16">
-        <v>0.004764428853058123</v>
-      </c>
-      <c r="Q16">
-        <v>0.02796335353533333</v>
-      </c>
-      <c r="R16">
-        <v>0.167780121212</v>
-      </c>
-      <c r="S16">
-        <v>0.0009247275655919412</v>
-      </c>
-      <c r="T16">
-        <v>0.001003268425440496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>8.266659499999999</v>
-      </c>
-      <c r="H17">
-        <v>16.533319</v>
-      </c>
-      <c r="I17">
-        <v>0.2857737591371413</v>
-      </c>
-      <c r="J17">
-        <v>0.2105747522699458</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.0061425</v>
-      </c>
-      <c r="N17">
-        <v>2.012285</v>
-      </c>
-      <c r="O17">
-        <v>0.9624800727401781</v>
-      </c>
-      <c r="P17">
-        <v>0.9447564756184532</v>
-      </c>
-      <c r="Q17">
-        <v>8.317437455978748</v>
-      </c>
-      <c r="R17">
-        <v>33.26974982391499</v>
-      </c>
-      <c r="S17">
-        <v>0.2750515484815499</v>
-      </c>
-      <c r="T17">
-        <v>0.1989418608087828</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.3470173333333333</v>
-      </c>
-      <c r="H18">
-        <v>1.041052</v>
-      </c>
-      <c r="I18">
-        <v>0.01199619360545975</v>
-      </c>
-      <c r="J18">
-        <v>0.01325924135378575</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.002858666666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.008576</v>
-      </c>
-      <c r="O18">
-        <v>0.002734612344944435</v>
-      </c>
-      <c r="P18">
-        <v>0.004026383705540645</v>
-      </c>
-      <c r="Q18">
-        <v>0.0009920068835555557</v>
-      </c>
-      <c r="R18">
-        <v>0.008928061952000001</v>
-      </c>
-      <c r="S18">
-        <v>3.280493912583372E-05</v>
-      </c>
-      <c r="T18">
-        <v>5.338679333471361E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.3470173333333333</v>
-      </c>
-      <c r="H19">
-        <v>1.041052</v>
-      </c>
-      <c r="I19">
-        <v>0.01199619360545975</v>
-      </c>
-      <c r="J19">
-        <v>0.01325924135378575</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.03298066666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.098942</v>
-      </c>
-      <c r="O19">
-        <v>0.03154944200483818</v>
-      </c>
-      <c r="P19">
-        <v>0.04645271182294804</v>
-      </c>
-      <c r="Q19">
-        <v>0.01144486299822222</v>
-      </c>
-      <c r="R19">
-        <v>0.103003766984</v>
-      </c>
-      <c r="S19">
-        <v>0.000378473214434263</v>
-      </c>
-      <c r="T19">
-        <v>0.0006159277175983248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.3470173333333333</v>
-      </c>
-      <c r="H20">
-        <v>1.041052</v>
-      </c>
-      <c r="I20">
-        <v>0.01199619360545975</v>
-      </c>
-      <c r="J20">
-        <v>0.01325924135378575</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.003382666666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.010148</v>
-      </c>
-      <c r="O20">
-        <v>0.003235872910039194</v>
-      </c>
-      <c r="P20">
-        <v>0.004764428853058123</v>
-      </c>
-      <c r="Q20">
-        <v>0.001173843966222222</v>
-      </c>
-      <c r="R20">
-        <v>0.010564595696</v>
-      </c>
-      <c r="S20">
-        <v>3.881815791149261E-05</v>
-      </c>
-      <c r="T20">
-        <v>6.317271207563825E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.3470173333333333</v>
-      </c>
-      <c r="H21">
-        <v>1.041052</v>
-      </c>
-      <c r="I21">
-        <v>0.01199619360545975</v>
-      </c>
-      <c r="J21">
-        <v>0.01325924135378575</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.0061425</v>
-      </c>
-      <c r="N21">
-        <v>2.012285</v>
-      </c>
-      <c r="O21">
-        <v>0.9624800727401781</v>
-      </c>
-      <c r="P21">
-        <v>0.9447564756184532</v>
-      </c>
-      <c r="Q21">
-        <v>0.3491488873033333</v>
-      </c>
-      <c r="R21">
-        <v>2.09489332382</v>
-      </c>
-      <c r="S21">
-        <v>0.01154609729398816</v>
-      </c>
-      <c r="T21">
-        <v>0.01252675413077707</v>
+        <v>0.004286076762550732</v>
       </c>
     </row>
   </sheetData>
